--- a/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8741B3-0FDC-46A2-9F67-142D16CF9D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699F83C0-4C4D-4500-9522-D33341EED93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMME" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Dezember" sheetId="4" r:id="rId5"/>
     <sheet name="Jänner" sheetId="5" r:id="rId6"/>
     <sheet name="Februar" sheetId="6" r:id="rId7"/>
+    <sheet name="März" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="45">
   <si>
     <t>KW35</t>
   </si>
@@ -165,6 +166,18 @@
   </si>
   <si>
     <t>Gesamte Zeit</t>
+  </si>
+  <si>
+    <t>KW10</t>
+  </si>
+  <si>
+    <t>KW11</t>
+  </si>
+  <si>
+    <t>KW12</t>
+  </si>
+  <si>
+    <t>KW13</t>
   </si>
 </sst>
 </file>
@@ -537,7 +550,7 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +566,7 @@
       </c>
       <c r="B3">
         <f>September!I40+Oktober!I48+November!I40+Dezember!I40+Jänner!I40+Februar!I40</f>
-        <v>110.5</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,8 +574,8 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>September!I41+Oktober!I49+November!I41+Dezember!I41+Jänner!I41+Februar!I41</f>
-        <v>64.5</v>
+        <f>September!I41+Oktober!I49+November!I41+Dezember!I41+Jänner!I41+Februar!I41+März!I41</f>
+        <v>109.5</v>
       </c>
     </row>
   </sheetData>
@@ -574,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
@@ -714,7 +727,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="7">
         <f t="shared" ref="I6" si="0">SUM(B6:H6)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -836,16 +849,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="4">
         <v>4.5</v>
@@ -854,7 +867,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="7">
         <f t="shared" ref="I14:I38" si="1">SUM(B14:H14)</f>
-        <v>12.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -947,12 +960,16 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -974,12 +991,16 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1073,11 +1094,13 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4">
+        <v>2</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1100,11 +1123,13 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4">
+        <v>2</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1240,7 +1265,7 @@
       </c>
       <c r="I40" s="7">
         <f>I4+I12+I20+I28+I36</f>
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1249,7 +1274,7 @@
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>31.5</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1258,7 +1283,7 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>116.5</v>
+        <v>139.5</v>
       </c>
     </row>
   </sheetData>
@@ -3912,8 +3937,8 @@
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4255,12 +4280,14 @@
         <v>7</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -4421,12 +4448,8 @@
       <c r="E33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
@@ -4446,8 +4469,654 @@
       <c r="E34" s="3">
         <v>45351</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="I36" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4">
+        <v>4</v>
+      </c>
+      <c r="D38" s="4">
+        <v>5</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="I38" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="7">
+        <f>I4+I12+I20+I28+I36</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="7">
+        <f>I6+I14+I22+I30+I38</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="7">
+        <f>I40+I41</f>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D867953B-CF18-4E8F-8E2D-D348D0825E5D}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
+        <v>45352</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45353</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="7">
+        <f>SUM(B4:H4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6" si="0">SUM(B6:H6)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45355</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45356</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45357</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45358</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45359</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45360</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="7">
+        <f>SUM(B12:H12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="7">
+        <f t="shared" ref="I14:I38" si="1">SUM(B14:H14)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45362</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45363</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45364</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45365</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45366</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45367</v>
+      </c>
+      <c r="H18" s="3">
+        <v>45368</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45369</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45370</v>
+      </c>
+      <c r="D26" s="3">
+        <v>45371</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45372</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45373</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45374</v>
+      </c>
+      <c r="H26" s="3">
+        <v>45375</v>
+      </c>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45376</v>
+      </c>
+      <c r="C34" s="3">
+        <v>45377</v>
+      </c>
+      <c r="D34" s="3">
+        <v>45378</v>
+      </c>
+      <c r="E34" s="3">
+        <v>45379</v>
+      </c>
+      <c r="F34" s="3">
+        <v>45380</v>
+      </c>
+      <c r="G34" s="3">
+        <v>45381</v>
+      </c>
+      <c r="H34" s="3">
+        <v>45382</v>
+      </c>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -4458,6 +5127,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -4470,8 +5140,9 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(B36:H36)</f>
         <v>0</v>
       </c>
     </row>
@@ -4483,6 +5154,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -4495,6 +5167,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4509,7 +5182,7 @@
       </c>
       <c r="I40" s="7">
         <f>I4+I12+I20+I28+I36</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4518,7 +5191,7 @@
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4527,11 +5200,10 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699F83C0-4C4D-4500-9522-D33341EED93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49D449D-74B9-43DE-B106-8895A8BF0258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMME" sheetId="7" r:id="rId1"/>
@@ -575,7 +575,7 @@
       </c>
       <c r="B4">
         <f>September!I41+Oktober!I49+November!I41+Dezember!I41+Jänner!I41+Februar!I41+März!I41</f>
-        <v>109.5</v>
+        <v>114.5</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+    <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -4569,8 +4569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D867953B-CF18-4E8F-8E2D-D348D0825E5D}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4789,13 +4789,15 @@
       <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4">
+        <v>5</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="7">
         <f t="shared" ref="I14:I38" si="1">SUM(B14:H14)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5191,7 +5193,7 @@
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5200,7 +5202,7 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49D449D-74B9-43DE-B106-8895A8BF0258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5957BE2-F8A8-4E7B-B62F-0F2F2F9933CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,7 +575,7 @@
       </c>
       <c r="B4">
         <f>September!I41+Oktober!I49+November!I41+Dezember!I41+Jänner!I41+Februar!I41+März!I41</f>
-        <v>114.5</v>
+        <v>124.5</v>
       </c>
     </row>
   </sheetData>
@@ -4570,7 +4570,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4792,12 +4792,18 @@
       <c r="E14" s="4">
         <v>5</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>6</v>
+      </c>
       <c r="I14" s="7">
         <f t="shared" ref="I14:I38" si="1">SUM(B14:H14)</f>
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5193,7 +5199,7 @@
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5202,7 +5208,7 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5.Klasse\SWP\Coding\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5957BE2-F8A8-4E7B-B62F-0F2F2F9933CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F295E3F-3956-457B-82D8-BD3886F1883E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMME" sheetId="7" r:id="rId1"/>
@@ -549,27 +549,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00762D3-10B6-4EB2-9095-A21CAC2867B8}">
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <f>September!I40+Oktober!I48+November!I40+Dezember!I40+Jänner!I40+Februar!I40</f>
-        <v>116.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -591,16 +591,16 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +653,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -663,7 +663,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -693,7 +693,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -704,7 +704,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -730,7 +730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -739,7 +739,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -748,7 +748,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -771,7 +771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,7 +797,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -807,7 +807,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -833,7 +833,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -844,7 +844,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -870,7 +870,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -880,7 +880,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -890,7 +890,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -914,7 +914,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -941,7 +941,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -952,7 +952,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -983,7 +983,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1013,7 +1013,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1023,7 +1023,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1085,7 +1085,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1114,7 +1114,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1142,7 +1142,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1152,7 +1152,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1174,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1208,7 +1208,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1237,7 +1237,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1256,10 +1256,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -1301,20 +1301,20 @@
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1329,7 +1329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1353,7 +1353,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1380,7 +1380,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1405,7 +1405,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1414,7 +1414,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1473,7 +1473,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1500,7 +1500,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1526,7 +1526,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1536,7 +1536,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1598,7 +1598,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1629,7 +1629,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1659,7 +1659,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1669,7 +1669,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1731,7 +1731,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1760,7 +1760,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1788,7 +1788,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1798,7 +1798,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1860,7 +1860,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1889,7 +1889,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1907,13 +1907,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1934,12 +1934,12 @@
       </c>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -1950,12 +1950,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H48" t="s">
         <v>15</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H49" t="s">
         <v>16</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H50" t="s">
         <v>17</v>
       </c>
@@ -2003,24 +2003,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6493E4-71F9-48BC-8439-200D2505B184}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2043,7 +2043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2075,7 +2075,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2104,7 +2104,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2131,7 +2131,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2140,7 +2140,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2199,7 +2199,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2226,7 +2226,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2252,7 +2252,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2262,7 +2262,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2324,7 +2324,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2351,7 +2351,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2377,7 +2377,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2387,7 +2387,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2449,7 +2449,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2478,7 +2478,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2506,7 +2506,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2516,7 +2516,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -2554,7 +2554,7 @@
       <c r="G34" s="2"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2564,7 +2564,7 @@
       <c r="G35" s="2"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2591,7 +2591,7 @@
       <c r="G37" s="2"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -2645,24 +2645,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB2C203-DAED-48B0-A18A-74C20147B6C9}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="95" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2681,7 +2681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2709,7 +2709,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2738,7 +2738,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2765,7 +2765,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2774,7 +2774,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2833,7 +2833,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2860,7 +2860,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2888,7 +2888,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2898,7 +2898,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2960,7 +2960,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2987,7 +2987,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3015,7 +3015,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3025,7 +3025,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3087,7 +3087,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3114,7 +3114,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3140,7 +3140,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3150,7 +3150,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3212,7 +3212,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3239,7 +3239,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -3255,10 +3255,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -3295,13 +3295,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A85C19-9CD2-495E-8FDD-A90E9CF28E6D}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3328,7 +3328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3364,7 +3364,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3391,7 +3391,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3416,7 +3416,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3425,7 +3425,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3484,7 +3484,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3511,7 +3511,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3537,7 +3537,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3547,7 +3547,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3609,7 +3609,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3640,7 +3640,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3666,7 +3666,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3676,7 +3676,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3738,7 +3738,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3769,7 +3769,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3795,7 +3795,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3805,7 +3805,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3827,7 +3827,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -3845,7 +3845,7 @@
       <c r="G34" s="3"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3855,7 +3855,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3880,7 +3880,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -3895,10 +3895,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -3937,13 +3937,13 @@
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3964,7 +3964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3994,7 +3994,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4021,7 +4021,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4046,7 +4046,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4055,7 +4055,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>45333</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4114,7 +4114,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4141,7 +4141,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4167,7 +4167,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4177,7 +4177,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4239,7 +4239,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4268,7 +4268,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4300,7 +4300,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4310,7 +4310,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4372,7 +4372,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4399,7 +4399,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4425,7 +4425,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4435,7 +4435,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -4453,7 +4453,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -4473,7 +4473,7 @@
       <c r="G34" s="2"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4483,22 +4483,26 @@
       <c r="G35" s="2"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="C36" s="4">
+        <v>2</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="I36" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -4508,7 +4512,7 @@
       <c r="G37" s="2"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -4527,21 +4531,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
       <c r="I40" s="7">
         <f>I4+I12+I20+I28+I36</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -4550,13 +4554,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4569,16 +4573,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D867953B-CF18-4E8F-8E2D-D348D0825E5D}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4597,7 +4601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -4615,7 +4619,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -4625,7 +4629,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4641,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4652,7 +4656,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4672,7 +4676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4681,7 +4685,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4690,7 +4694,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4713,7 +4717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -4739,7 +4743,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4749,7 +4753,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4765,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4776,7 +4780,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4806,7 +4810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4816,7 +4820,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4826,7 +4830,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4850,7 +4854,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -4877,7 +4881,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4888,7 +4892,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -4904,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4915,7 +4919,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -4931,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4941,7 +4945,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4951,7 +4955,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -4975,7 +4979,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -5002,7 +5006,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -5013,7 +5017,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -5029,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -5040,7 +5044,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -5056,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5066,7 +5070,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5076,7 +5080,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -5100,7 +5104,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -5127,7 +5131,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -5138,7 +5142,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -5154,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -5165,7 +5169,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -5181,10 +5185,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -5193,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -5202,7 +5206,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>

--- a/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5.Klasse\SWP\Coding\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F295E3F-3956-457B-82D8-BD3886F1883E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F407C03D-AB57-465A-BB98-BB57729D55CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMME" sheetId="7" r:id="rId1"/>
@@ -549,18 +549,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00762D3-10B6-4EB2-9095-A21CAC2867B8}">
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -569,13 +569,13 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <f>September!I41+Oktober!I49+November!I41+Dezember!I41+Jänner!I41+Februar!I41+März!I41</f>
-        <v>124.5</v>
+        <v>132.5</v>
       </c>
     </row>
   </sheetData>
@@ -591,16 +591,16 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +653,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -663,7 +663,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -693,7 +693,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -704,7 +704,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -730,7 +730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -739,7 +739,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -748,7 +748,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -771,7 +771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,7 +797,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -807,7 +807,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -833,7 +833,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -844,7 +844,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -870,7 +870,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -880,7 +880,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -890,7 +890,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -914,7 +914,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -941,7 +941,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -952,7 +952,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -983,7 +983,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1013,7 +1013,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1023,7 +1023,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1085,7 +1085,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1114,7 +1114,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1142,7 +1142,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1152,7 +1152,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1174,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1208,7 +1208,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1237,7 +1237,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1256,10 +1256,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -1301,20 +1301,20 @@
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1329,7 +1329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1353,7 +1353,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1380,7 +1380,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1405,7 +1405,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1414,7 +1414,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1473,7 +1473,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1500,7 +1500,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1526,7 +1526,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1536,7 +1536,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1598,7 +1598,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1629,7 +1629,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1659,7 +1659,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1669,7 +1669,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1731,7 +1731,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1760,7 +1760,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1788,7 +1788,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1798,7 +1798,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1860,7 +1860,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1889,7 +1889,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1907,13 +1907,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1934,12 +1934,12 @@
       </c>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -1950,12 +1950,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
         <v>15</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
         <v>16</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
         <v>17</v>
       </c>
@@ -2007,20 +2007,20 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2043,7 +2043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2075,7 +2075,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2104,7 +2104,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2131,7 +2131,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2140,7 +2140,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2199,7 +2199,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2226,7 +2226,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2252,7 +2252,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2262,7 +2262,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2324,7 +2324,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2351,7 +2351,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2377,7 +2377,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2387,7 +2387,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2449,7 +2449,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2478,7 +2478,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2506,7 +2506,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2516,7 +2516,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -2554,7 +2554,7 @@
       <c r="G34" s="2"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2564,7 +2564,7 @@
       <c r="G35" s="2"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2591,7 +2591,7 @@
       <c r="G37" s="2"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -2649,20 +2649,20 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2681,7 +2681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2709,7 +2709,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2738,7 +2738,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2765,7 +2765,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2774,7 +2774,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2833,7 +2833,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2860,7 +2860,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2888,7 +2888,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2898,7 +2898,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2960,7 +2960,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2987,7 +2987,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3015,7 +3015,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3025,7 +3025,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3087,7 +3087,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3114,7 +3114,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3140,7 +3140,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3150,7 +3150,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3212,7 +3212,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3239,7 +3239,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -3255,10 +3255,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -3299,9 +3299,9 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3328,7 +3328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3364,7 +3364,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3391,7 +3391,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3416,7 +3416,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3425,7 +3425,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3484,7 +3484,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3511,7 +3511,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3537,7 +3537,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3547,7 +3547,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3609,7 +3609,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3640,7 +3640,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3666,7 +3666,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3676,7 +3676,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3738,7 +3738,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3769,7 +3769,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3795,7 +3795,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3805,7 +3805,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3827,7 +3827,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -3845,7 +3845,7 @@
       <c r="G34" s="3"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3855,7 +3855,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3880,7 +3880,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -3895,10 +3895,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -3941,9 +3941,9 @@
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3964,7 +3964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3994,7 +3994,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4021,7 +4021,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4046,7 +4046,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4055,7 +4055,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>45333</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4114,7 +4114,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4141,7 +4141,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4167,7 +4167,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4177,7 +4177,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4239,7 +4239,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4268,7 +4268,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4300,7 +4300,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4310,7 +4310,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4372,7 +4372,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4399,7 +4399,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4425,7 +4425,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4435,7 +4435,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -4453,7 +4453,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -4473,7 +4473,7 @@
       <c r="G34" s="2"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4483,7 +4483,7 @@
       <c r="G35" s="2"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -4512,7 +4512,7 @@
       <c r="G37" s="2"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -4531,12 +4531,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -4573,16 +4573,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D867953B-CF18-4E8F-8E2D-D348D0825E5D}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4601,7 +4601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -4629,7 +4629,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4656,7 +4656,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4685,7 +4685,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4694,7 +4694,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4753,7 +4753,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4780,7 +4780,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4820,7 +4820,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4830,7 +4830,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4892,7 +4892,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4919,11 +4919,13 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4">
+        <v>8</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -4932,10 +4934,10 @@
       <c r="H22" s="4"/>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4945,7 +4947,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4955,7 +4957,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -4979,7 +4981,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -5006,7 +5008,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -5017,7 +5019,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -5033,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -5044,7 +5046,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -5060,7 +5062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5070,7 +5072,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5080,7 +5082,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -5104,7 +5106,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -5131,7 +5133,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -5142,7 +5144,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -5158,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -5169,7 +5171,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -5185,10 +5187,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -5197,22 +5199,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F407C03D-AB57-465A-BB98-BB57729D55CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026E6BB9-D708-4D40-B65F-5CD254C8D935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,7 +575,7 @@
       </c>
       <c r="B4">
         <f>September!I41+Oktober!I49+November!I41+Dezember!I41+Jänner!I41+Februar!I41+März!I41</f>
-        <v>132.5</v>
+        <v>136.5</v>
       </c>
     </row>
   </sheetData>
@@ -4926,7 +4926,9 @@
       <c r="B22" s="4">
         <v>8</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4">
+        <v>4</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -4934,7 +4936,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -5205,7 +5207,7 @@
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5214,7 +5216,7 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5.Klasse\SWP\Coding\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026E6BB9-D708-4D40-B65F-5CD254C8D935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503F7A1B-A76D-40C6-A790-F09D1E7E9668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMME" sheetId="7" r:id="rId1"/>
@@ -550,7 +550,7 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,8 +565,8 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>September!I40+Oktober!I48+November!I40+Dezember!I40+Jänner!I40+Februar!I40</f>
-        <v>121.5</v>
+        <f>September!I40+Oktober!I48+November!I40+Dezember!I40+Jänner!I40+Februar!I40+März!I40</f>
+        <v>147.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
       </c>
       <c r="B4">
         <f>September!I41+Oktober!I49+November!I41+Dezember!I41+Jänner!I41+Februar!I41+März!I41</f>
-        <v>136.5</v>
+        <v>150.5</v>
       </c>
     </row>
   </sheetData>
@@ -3937,8 +3937,8 @@
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4003,11 +4003,13 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="7">
         <f>SUM(B4:H4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4030,11 +4032,13 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="7">
         <f t="shared" ref="I6" si="0">SUM(B6:H6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4119,15 +4123,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="7">
         <f>SUM(B12:H12)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4146,15 +4154,19 @@
         <v>2</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="7">
         <f t="shared" ref="I14:I38" si="1">SUM(B14:H14)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4377,15 +4389,19 @@
         <v>1</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4404,15 +4420,19 @@
         <v>2</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4542,7 +4562,7 @@
       </c>
       <c r="I40" s="7">
         <f>I4+I12+I20+I28+I36</f>
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4551,7 +4571,7 @@
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4560,7 +4580,7 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4574,7 +4594,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4637,12 +4657,16 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
       <c r="I4" s="7">
         <f>SUM(B4:H4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4896,16 +4920,22 @@
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4929,14 +4959,16 @@
       <c r="C22" s="4">
         <v>4</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4">
+        <v>4</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -5030,11 +5062,15 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="G28" s="4">
+        <v>3</v>
+      </c>
+      <c r="H28" s="4">
+        <v>3</v>
+      </c>
       <c r="I28" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -5058,10 +5094,12 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
       <c r="I30" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -5198,7 +5236,7 @@
       </c>
       <c r="I40" s="7">
         <f>I4+I12+I20+I28+I36</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -5207,7 +5245,7 @@
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5216,7 +5254,7 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5.Klasse\SWP\Coding\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503F7A1B-A76D-40C6-A790-F09D1E7E9668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A5A46A-737A-484A-B4E4-1E0298758C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMME" sheetId="7" r:id="rId1"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="B3">
         <f>September!I40+Oktober!I48+November!I40+Dezember!I40+Jänner!I40+Februar!I40+März!I40</f>
-        <v>147.5</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
       </c>
       <c r="B4">
         <f>September!I41+Oktober!I49+November!I41+Dezember!I41+Jänner!I41+Februar!I41+März!I41</f>
-        <v>150.5</v>
+        <v>151.5</v>
       </c>
     </row>
   </sheetData>
@@ -4593,8 +4593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D867953B-CF18-4E8F-8E2D-D348D0825E5D}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4929,13 +4929,15 @@
       <c r="D20" s="4">
         <v>4</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4962,13 +4964,15 @@
       <c r="D22" s="4">
         <v>4</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -5236,7 +5240,7 @@
       </c>
       <c r="I40" s="7">
         <f>I4+I12+I20+I28+I36</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -5245,7 +5249,7 @@
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5254,7 +5258,7 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A5A46A-737A-484A-B4E4-1E0298758C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A740F32-E522-487A-BDCC-5D6C40830B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,7 +575,7 @@
       </c>
       <c r="B4">
         <f>September!I41+Oktober!I49+November!I41+Dezember!I41+Jänner!I41+Februar!I41+März!I41</f>
-        <v>151.5</v>
+        <v>154.5</v>
       </c>
     </row>
   </sheetData>
@@ -4593,8 +4593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D867953B-CF18-4E8F-8E2D-D348D0825E5D}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5099,11 +5099,11 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A740F32-E522-487A-BDCC-5D6C40830B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC37B5E8-37BD-4BDA-94A4-9FED6748637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,7 +575,7 @@
       </c>
       <c r="B4">
         <f>September!I41+Oktober!I49+November!I41+Dezember!I41+Jänner!I41+Februar!I41+März!I41</f>
-        <v>154.5</v>
+        <v>161.5</v>
       </c>
     </row>
   </sheetData>
@@ -4593,8 +4593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D867953B-CF18-4E8F-8E2D-D348D0825E5D}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5219,16 +5219,22 @@
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="4">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="1"/>
       <c r="I38" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -5249,7 +5255,7 @@
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5258,7 +5264,7 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5.Klasse\SWP\Coding\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC37B5E8-37BD-4BDA-94A4-9FED6748637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE53C405-05E5-468A-A994-D96855B7C903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMME" sheetId="7" r:id="rId1"/>
@@ -549,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00762D3-10B6-4EB2-9095-A21CAC2867B8}">
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
@@ -566,7 +566,7 @@
       </c>
       <c r="B3">
         <f>September!I40+Oktober!I48+November!I40+Dezember!I40+Jänner!I40+Februar!I40+März!I40</f>
-        <v>148.5</v>
+        <v>154.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4593,8 +4593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D867953B-CF18-4E8F-8E2D-D348D0825E5D}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5194,14 +5194,16 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4">
+        <v>6</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="1"/>
       <c r="I36" s="7">
         <f>SUM(B36:H36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -5246,7 +5248,7 @@
       </c>
       <c r="I40" s="7">
         <f>I4+I12+I20+I28+I36</f>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -5264,7 +5266,7 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5.Klasse\SWP\Coding\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE53C405-05E5-468A-A994-D96855B7C903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4D4A3A-43AF-4976-9CF6-B67277B0CD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMME" sheetId="7" r:id="rId1"/>
@@ -549,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00762D3-10B6-4EB2-9095-A21CAC2867B8}">
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
@@ -566,7 +566,7 @@
       </c>
       <c r="B3">
         <f>September!I40+Oktober!I48+November!I40+Dezember!I40+Jänner!I40+Februar!I40+März!I40</f>
-        <v>154.5</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
       </c>
       <c r="B4">
         <f>September!I41+Oktober!I49+November!I41+Dezember!I41+Jänner!I41+Februar!I41+März!I41</f>
-        <v>161.5</v>
+        <v>174.5</v>
       </c>
     </row>
   </sheetData>
@@ -3937,8 +3937,8 @@
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4398,10 +4398,12 @@
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="H28" s="4">
+        <v>3</v>
+      </c>
       <c r="I28" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4429,10 +4431,12 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="H30" s="4">
+        <v>3</v>
+      </c>
       <c r="I30" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4562,7 +4566,7 @@
       </c>
       <c r="I40" s="7">
         <f>I4+I12+I20+I28+I36</f>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4571,7 +4575,7 @@
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4580,7 +4584,7 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4593,8 +4597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D867953B-CF18-4E8F-8E2D-D348D0825E5D}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5228,15 +5232,17 @@
         <v>2</v>
       </c>
       <c r="D38" s="4">
-        <v>3</v>
-      </c>
-      <c r="E38" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="E38" s="4">
+        <v>7</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="1"/>
       <c r="I38" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -5257,7 +5263,7 @@
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5266,7 +5272,7 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5.Klasse\SWP\Coding\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4D4A3A-43AF-4976-9CF6-B67277B0CD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C035093C-CD93-4CE3-83AB-D3DCDD52EA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMME" sheetId="7" r:id="rId1"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="B3">
         <f>September!I40+Oktober!I48+November!I40+Dezember!I40+Jänner!I40+Februar!I40+März!I40</f>
-        <v>157.5</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
       </c>
       <c r="B4">
         <f>September!I41+Oktober!I49+November!I41+Dezember!I41+Jänner!I41+Februar!I41+März!I41</f>
-        <v>174.5</v>
+        <v>181.5</v>
       </c>
     </row>
   </sheetData>
@@ -588,7 +588,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6493E4-71F9-48BC-8439-200D2505B184}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,14 +2083,16 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4">
         <v>3</v>
       </c>
       <c r="I4" s="7">
         <f>SUM(B4:H4)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2206,13 +2208,15 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="7">
         <f>SUM(B12:H12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2330,14 +2334,16 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2357,14 +2363,16 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4">
+        <v>3</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2458,13 +2466,17 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2487,13 +2499,17 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2615,7 +2631,7 @@
       </c>
       <c r="I40" s="7">
         <f>I4+I12+I20+I28+I36</f>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2624,7 +2640,7 @@
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2633,7 +2649,7 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3295,8 +3311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A85C19-9CD2-495E-8FDD-A90E9CF28E6D}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3619,14 +3635,14 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3904,7 +3920,7 @@
       </c>
       <c r="I40" s="7">
         <f>I4+I12+I20+I28+I36</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3922,7 +3938,7 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3938,7 +3954,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4394,7 +4410,7 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -4403,7 +4419,7 @@
       </c>
       <c r="I28" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4566,7 +4582,7 @@
       </c>
       <c r="I40" s="7">
         <f>I4+I12+I20+I28+I36</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4584,7 +4600,7 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4598,12 +4614,13 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4786,15 +4803,21 @@
         <v>1</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
       <c r="I12" s="7">
         <f>SUM(B12:H12)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5197,17 +5220,23 @@
         <v>1</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
       <c r="D36" s="4">
         <v>6</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="E36" s="4">
+        <v>3</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="1"/>
       <c r="I36" s="7">
         <f>SUM(B36:H36)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -5254,7 +5283,7 @@
       </c>
       <c r="I40" s="7">
         <f>I4+I12+I20+I28+I36</f>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -5272,7 +5301,7 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5.Klasse\SWP\Coding\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C035093C-CD93-4CE3-83AB-D3DCDD52EA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFA3549-FC07-4C7B-9DD1-C5D125986F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMME" sheetId="7" r:id="rId1"/>
@@ -575,7 +575,7 @@
       </c>
       <c r="B4">
         <f>September!I41+Oktober!I49+November!I41+Dezember!I41+Jänner!I41+Februar!I41+März!I41</f>
-        <v>181.5</v>
+        <v>187.5</v>
       </c>
     </row>
   </sheetData>
@@ -4614,7 +4614,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5266,12 +5266,16 @@
       <c r="E38" s="4">
         <v>7</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4">
+        <v>4</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="7">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -5292,7 +5296,7 @@
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5301,7 +5305,7 @@
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zodia\OneDrive - HTL Dornbirn\5cWI\Z_Diplomarbeit\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5.Klasse\SWP\Coding\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFA3549-FC07-4C7B-9DD1-C5D125986F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CC470A-CDE3-44B4-A5EE-A072A016BCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMME" sheetId="7" r:id="rId1"/>
@@ -553,23 +553,23 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <f>September!I40+Oktober!I48+November!I40+Dezember!I40+Jänner!I40+Februar!I40+März!I40</f>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -591,16 +591,16 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +653,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -663,7 +663,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -693,7 +693,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -704,7 +704,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -730,7 +730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -739,7 +739,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -748,7 +748,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -771,7 +771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,7 +797,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -807,7 +807,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -833,7 +833,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -844,7 +844,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -870,7 +870,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -880,7 +880,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -890,7 +890,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -914,7 +914,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -941,7 +941,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -952,7 +952,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -983,7 +983,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1013,7 +1013,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1023,7 +1023,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1085,7 +1085,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1114,7 +1114,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1142,7 +1142,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1152,7 +1152,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1174,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1208,7 +1208,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1237,7 +1237,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1256,10 +1256,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -1301,20 +1301,20 @@
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1329,7 +1329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1353,7 +1353,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1380,7 +1380,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1405,7 +1405,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1414,7 +1414,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1473,7 +1473,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1500,7 +1500,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1526,7 +1526,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1536,7 +1536,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1598,7 +1598,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1629,7 +1629,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1659,7 +1659,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1669,7 +1669,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1731,7 +1731,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1760,7 +1760,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1788,7 +1788,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1798,7 +1798,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1860,7 +1860,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1889,7 +1889,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1907,13 +1907,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1934,12 +1934,12 @@
       </c>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -1950,12 +1950,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H48" t="s">
         <v>15</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H49" t="s">
         <v>16</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H50" t="s">
         <v>17</v>
       </c>
@@ -2007,20 +2007,20 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2043,7 +2043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2075,7 +2075,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2106,7 +2106,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2133,7 +2133,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2142,7 +2142,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2201,7 +2201,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2230,7 +2230,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2256,7 +2256,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2266,7 +2266,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2328,7 +2328,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2357,7 +2357,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2385,7 +2385,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2395,7 +2395,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2457,7 +2457,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2490,7 +2490,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2522,7 +2522,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2532,7 +2532,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2550,7 +2550,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -2570,7 +2570,7 @@
       <c r="G34" s="2"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2580,7 +2580,7 @@
       <c r="G35" s="2"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2607,7 +2607,7 @@
       <c r="G37" s="2"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -2622,10 +2622,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -2665,20 +2665,20 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2697,7 +2697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2725,7 +2725,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2754,7 +2754,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2781,7 +2781,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2790,7 +2790,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2849,7 +2849,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2876,7 +2876,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2904,7 +2904,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2914,7 +2914,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2976,7 +2976,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3003,7 +3003,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3031,7 +3031,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3041,7 +3041,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3103,7 +3103,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3130,7 +3130,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3156,7 +3156,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3166,7 +3166,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3228,7 +3228,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3255,7 +3255,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -3315,9 +3315,9 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3344,7 +3344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3380,7 +3380,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3407,7 +3407,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3432,7 +3432,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3441,7 +3441,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3500,7 +3500,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3527,7 +3527,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3553,7 +3553,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3563,7 +3563,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3625,7 +3625,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3656,7 +3656,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3682,7 +3682,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3692,7 +3692,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3754,7 +3754,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3785,7 +3785,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3811,7 +3811,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3821,7 +3821,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -3861,7 +3861,7 @@
       <c r="G34" s="3"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3871,7 +3871,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3896,7 +3896,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -3911,10 +3911,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -3957,9 +3957,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3980,7 +3980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -4010,7 +4010,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4039,7 +4039,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4066,7 +4066,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4075,7 +4075,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>45333</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4134,7 +4134,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4165,7 +4165,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4195,7 +4195,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4205,7 +4205,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4267,7 +4267,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4296,7 +4296,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4328,7 +4328,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4338,7 +4338,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4400,7 +4400,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4433,7 +4433,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4465,7 +4465,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4475,7 +4475,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -4493,7 +4493,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -4513,7 +4513,7 @@
       <c r="G34" s="2"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4523,7 +4523,7 @@
       <c r="G35" s="2"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -4552,7 +4552,7 @@
       <c r="G37" s="2"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -4571,12 +4571,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -4613,17 +4613,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D867953B-CF18-4E8F-8E2D-D348D0825E5D}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4642,7 +4642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -4670,7 +4670,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4701,7 +4701,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4730,7 +4730,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4739,7 +4739,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4798,7 +4798,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4831,7 +4831,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4871,7 +4871,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4881,7 +4881,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4943,7 +4943,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4978,7 +4978,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5012,7 +5012,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -5022,7 +5022,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -5084,7 +5084,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -5115,7 +5115,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5143,7 +5143,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5153,7 +5153,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -5215,7 +5215,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -5232,14 +5232,16 @@
       <c r="F36" s="4">
         <v>3</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="4">
+        <v>2</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="7">
         <f>SUM(B36:H36)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -5250,7 +5252,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -5278,19 +5280,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>15</v>
       </c>
       <c r="I40" s="7">
         <f>I4+I12+I20+I28+I36</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -5299,13 +5301,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Bashar_Metin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5.Klasse\SWP\Coding\Diplomarbeit-FahrgemeinschaftenApp\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CC470A-CDE3-44B4-A5EE-A072A016BCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0391CB-993A-4BC4-B3DB-1E50B0D93139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMME" sheetId="7" r:id="rId1"/>
@@ -550,32 +550,32 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <f>September!I40+Oktober!I48+November!I40+Dezember!I40+Jänner!I40+Februar!I40+März!I40</f>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <f>September!I41+Oktober!I49+November!I41+Dezember!I41+Jänner!I41+Februar!I41+März!I41</f>
-        <v>187.5</v>
+        <v>202.5</v>
       </c>
     </row>
   </sheetData>
@@ -591,16 +591,16 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +653,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -663,7 +663,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -693,7 +693,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -704,7 +704,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -730,7 +730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -739,7 +739,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -748,7 +748,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -771,7 +771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,7 +797,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -807,7 +807,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -833,7 +833,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -844,7 +844,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -870,7 +870,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -880,7 +880,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -890,7 +890,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -914,7 +914,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -941,7 +941,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -952,7 +952,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -983,7 +983,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1013,7 +1013,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1023,7 +1023,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1085,7 +1085,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1114,7 +1114,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1142,7 +1142,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1152,7 +1152,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1174,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1208,7 +1208,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1237,7 +1237,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1256,10 +1256,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -1301,20 +1301,20 @@
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1329,7 +1329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1353,7 +1353,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1380,7 +1380,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1405,7 +1405,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1414,7 +1414,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1473,7 +1473,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1500,7 +1500,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1526,7 +1526,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1536,7 +1536,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1598,7 +1598,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1629,7 +1629,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1659,7 +1659,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1669,7 +1669,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1731,7 +1731,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1760,7 +1760,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1788,7 +1788,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1798,7 +1798,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1860,7 +1860,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1889,7 +1889,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1907,13 +1907,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1934,12 +1934,12 @@
       </c>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -1950,12 +1950,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
         <v>15</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
         <v>16</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
         <v>17</v>
       </c>
@@ -2007,20 +2007,20 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2043,7 +2043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2075,7 +2075,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2106,7 +2106,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2133,7 +2133,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2142,7 +2142,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2201,7 +2201,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2230,7 +2230,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2256,7 +2256,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2266,7 +2266,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2328,7 +2328,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2357,7 +2357,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2385,7 +2385,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2395,7 +2395,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2457,7 +2457,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2490,7 +2490,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2522,7 +2522,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2532,7 +2532,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2550,7 +2550,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -2570,7 +2570,7 @@
       <c r="G34" s="2"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2580,7 +2580,7 @@
       <c r="G35" s="2"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2607,7 +2607,7 @@
       <c r="G37" s="2"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -2622,10 +2622,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -2665,20 +2665,20 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2697,7 +2697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2725,7 +2725,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2754,7 +2754,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2781,7 +2781,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2790,7 +2790,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2849,7 +2849,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2876,7 +2876,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2904,7 +2904,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2914,7 +2914,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2976,7 +2976,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3003,7 +3003,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3031,7 +3031,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3041,7 +3041,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3103,7 +3103,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3130,7 +3130,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3156,7 +3156,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3166,7 +3166,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3228,7 +3228,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3255,7 +3255,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -3315,9 +3315,9 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3344,7 +3344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3380,7 +3380,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3407,7 +3407,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3432,7 +3432,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3441,7 +3441,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3500,7 +3500,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3527,7 +3527,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3553,7 +3553,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3563,7 +3563,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3625,7 +3625,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3656,7 +3656,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3682,7 +3682,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3692,7 +3692,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3754,7 +3754,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3785,7 +3785,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3811,7 +3811,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3821,7 +3821,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -3861,7 +3861,7 @@
       <c r="G34" s="3"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3871,7 +3871,7 @@
       <c r="G35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3896,7 +3896,7 @@
       <c r="G37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -3911,10 +3911,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -3957,9 +3957,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3980,7 +3980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -4010,7 +4010,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4039,7 +4039,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4066,7 +4066,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4075,7 +4075,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>45333</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4134,7 +4134,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4165,7 +4165,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4195,7 +4195,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4205,7 +4205,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4267,7 +4267,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4296,7 +4296,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4328,7 +4328,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4338,7 +4338,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4400,7 +4400,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4433,7 +4433,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4465,7 +4465,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4475,7 +4475,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -4493,7 +4493,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -4513,7 +4513,7 @@
       <c r="G34" s="2"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4523,7 +4523,7 @@
       <c r="G35" s="2"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -4552,7 +4552,7 @@
       <c r="G37" s="2"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -4571,12 +4571,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
@@ -4614,16 +4614,16 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4642,7 +4642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -4670,7 +4670,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4701,7 +4701,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4730,7 +4730,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4739,7 +4739,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4798,7 +4798,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4831,7 +4831,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4871,7 +4871,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4881,7 +4881,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4943,7 +4943,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4978,7 +4978,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5012,7 +5012,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -5022,7 +5022,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -5084,7 +5084,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -5115,7 +5115,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5143,7 +5143,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5153,7 +5153,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -5215,7 +5215,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -5235,13 +5235,15 @@
       <c r="G36" s="4">
         <v>2</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>15</v>
+      </c>
       <c r="I36" s="7">
         <f>SUM(B36:H36)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -5252,7 +5254,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -5274,40 +5276,42 @@
       <c r="G38" s="4">
         <v>4</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1">
+        <v>15</v>
+      </c>
       <c r="I38" s="7">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>15</v>
       </c>
       <c r="I40" s="7">
         <f>I4+I12+I20+I28+I36</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>16</v>
       </c>
       <c r="I41" s="7">
         <f>I6+I14+I22+I30+I38</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="7">
         <f>I40+I41</f>
-        <v>113</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
